--- a/energy_sankey.xlsx
+++ b/energy_sankey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronnie/Documents/GitHub/Digital_twin_Munich/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B3559-CA71-194B-9AC9-05544E851840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEC135D-515D-E74F-88AD-9EA069A77AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="180" windowWidth="28120" windowHeight="18000" xr2:uid="{351636A4-60D6-E643-9C57-36784055EE8B}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
